--- a/sql/artists.xlsx
+++ b/sql/artists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396FF2B-A00F-4820-B4E2-0BA639246975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A87E3A0-F080-4937-AB4F-61196876DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{03B28915-0A23-FE4B-9B9C-CC487E5D6921}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{03B28915-0A23-FE4B-9B9C-CC487E5D6921}"/>
   </bookViews>
   <sheets>
     <sheet name="Artists &amp; Staff" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Forename1</t>
   </si>
@@ -102,15 +102,6 @@
   </si>
   <si>
     <t>Lima</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>Edward</t>
   </si>
   <si>
     <t>Angel</t>
@@ -365,7 +356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C26A49-D5CC-9842-9B90-30921A0FE083}" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:F26" xr:uid="{37C26A49-D5CC-9842-9B90-30921A0FE083}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37C26A49-D5CC-9842-9B90-30921A0FE083}" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:F25" xr:uid="{37C26A49-D5CC-9842-9B90-30921A0FE083}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7937431F-BF85-EE40-821B-065B1982BDBB}" name="Forename1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{19C1E30A-2B48-5049-80DD-DFAA18738EF0}" name="Surname1" dataDxfId="4"/>
@@ -942,22 +933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEE1538-C881-9443-9DB9-37BC14280D20}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,12 +965,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -987,13 +978,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,13 +998,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,13 +1018,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1047,13 +1038,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1063,13 +1054,13 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,13 +1070,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1093,39 +1084,41 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -1137,296 +1130,276 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
